--- a/Decahedron.xlsx
+++ b/Decahedron.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -1356,7 +1356,7 @@
                   <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>CE of Icosahedron (eV)</a:t>
+                  <a:t>CE of Decahedron (eV)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1200">
                   <a:effectLst/>
@@ -1378,16 +1378,13 @@
                   <a:buFontTx/>
                   <a:buNone/>
                   <a:tabLst/>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr>
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:sysClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
@@ -1673,8 +1670,40 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -1866,8 +1895,40 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -2048,6 +2109,58 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.912850179441855E-4"/>
+                  <c:y val="5.6120090251876413E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>sheet1!$D$149:$D$169</c:f>
@@ -2252,8 +2365,46 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.59400610637956E-3"/>
+                  <c:y val="2.896440576506884E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -2587,7 +2738,7 @@
                   <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>CE of Icosahedron (eV)</a:t>
+                  <a:t>CE of Decahedron (eV)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1200">
                   <a:effectLst/>
@@ -2817,7 +2968,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.4991699755479285E-2"/>
+          <c:y val="0.10243427049710237"/>
+          <c:w val="0.75558483074231109"/>
+          <c:h val="0.79763111033371581"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -2867,7 +3028,9 @@
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
-                  <a:noFill/>
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
@@ -3083,8 +3246,40 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -3276,8 +3471,40 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -3469,8 +3696,46 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.9362900150301727E-3"/>
+                  <c:y val="2.2120642851143606E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -3802,7 +4067,7 @@
                   <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>CE of Icosahedron (eV)</a:t>
+                  <a:t>CE of Decahedron (eV)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1200">
                   <a:effectLst/>
@@ -5669,16 +5934,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>404812</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5710,16 +5975,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6085,7 +6350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F253"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -11171,8 +11436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11187,7 +11452,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="Y33" sqref="Y33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11202,7 +11467,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
